--- a/SOFTPLANBook1.xlsx
+++ b/SOFTPLANBook1.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>H</t>
   </si>
@@ -48,9 +48,6 @@
     <t>WP / My Web Project</t>
   </si>
   <si>
-    <t>SP / Software Project</t>
-  </si>
-  <si>
     <t>PY / Python</t>
   </si>
   <si>
@@ -94,15 +91,31 @@
   </si>
   <si>
     <t>Linux</t>
+  </si>
+  <si>
+    <t>Subjects</t>
+  </si>
+  <si>
+    <t>SP / Software Projects</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -129,11 +142,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,10 +538,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C7:C43"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+  <dimension ref="C5:C43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -535,6 +549,11 @@
     <col min="3" max="3" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="5" spans="3:3" ht="21">
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="7" spans="3:3" ht="30">
       <c r="C7" s="1" t="s">
         <v>1</v>
@@ -552,86 +571,87 @@
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
